--- a/important_logs/company_interview_log.xlsx
+++ b/important_logs/company_interview_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\Projects\java_dsa\java_dsa\important_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD43AD-A36F-4E47-B581-A3F90A569B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53248D27-D371-47B6-9159-FE848B181B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FDFF289-9D12-4AE3-9536-9FA7E1C7FCF8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Company</t>
   </si>
@@ -76,6 +76,54 @@
   </si>
   <si>
     <t>Failed : Didn't knew what profile I applied for ,and basic php fun did'nt recalled</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-02-2025 : basics </t>
+  </si>
+  <si>
+    <t>Farenexus</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>31-03-2025 : basics</t>
+  </si>
+  <si>
+    <t>03-04-2025 : String question , Basic java and springboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimeTray </t>
+  </si>
+  <si>
+    <t>Mern Developer</t>
+  </si>
+  <si>
+    <t>Java Developer , SpringBoot</t>
+  </si>
+  <si>
+    <t>Cutshort</t>
+  </si>
+  <si>
+    <t>Telephonic and assessment</t>
+  </si>
+  <si>
+    <t>27-03-2025:  basics and then assignment</t>
+  </si>
+  <si>
+    <t>Passed : had to remind them again to take further steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antier Solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-03-2024 : basic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was nervous and not accurate with the answers </t>
   </si>
 </sst>
 </file>
@@ -91,12 +139,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,15 +183,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF69694"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -428,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773F5B3-3650-4AD1-883D-A9DA1C539135}">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,55 +525,69 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="7" max="7" width="35.5546875" customWidth="1"/>
     <col min="8" max="8" width="77.33203125" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>45715</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -512,9 +608,82 @@
       </c>
       <c r="H5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45747</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45741</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45748</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>